--- a/test/HWDBUploader/UnitTest/001/test_biff_upload/saved.xlsx
+++ b/test/HWDBUploader/UnitTest/001/test_biff_upload/saved.xlsx
@@ -12,131 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-  </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
